--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T07:50:24+00:00</t>
+    <t>2025-09-10T10:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T10:00:26+00:00</t>
+    <t>2025-09-10T13:51:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T13:51:57+00:00</t>
+    <t>2025-09-11T08:12:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-11T08:12:08+00:00</t>
+    <t>2025-09-11T09:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-11T09:46:41+00:00</t>
+    <t>2025-09-15T07:08:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T07:08:09+00:00</t>
+    <t>2025-09-17T15:38:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T15:38:22+00:00</t>
+    <t>2025-09-18T09:40:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T09:40:01+00:00</t>
+    <t>2025-09-18T12:48:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T12:48:58+00:00</t>
+    <t>2025-09-18T14:47:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T14:47:30+00:00</t>
+    <t>2025-09-23T09:18:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T09:18:22+00:00</t>
+    <t>2025-09-23T12:45:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:45:16+00:00</t>
+    <t>2025-09-23T13:40:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T13:40:00+00:00</t>
+    <t>2025-09-24T08:59:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T08:59:11+00:00</t>
+    <t>2025-09-24T09:13:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T09:13:07+00:00</t>
+    <t>2025-09-25T09:59:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-25T09:59:00+00:00</t>
+    <t>2025-09-29T14:54:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T14:54:43+00:00</t>
+    <t>2025-09-30T08:07:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T08:07:48+00:00</t>
+    <t>2025-09-30T16:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-30T16:47:22+00:00</t>
+    <t>2025-10-01T14:45:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -5769,7 +5769,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>221</v>
       </c>
@@ -13579,7 +13579,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>487</v>
       </c>
@@ -16831,7 +16831,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>529</v>
       </c>
@@ -20445,7 +20445,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="145" hidden="true">
+    <row r="145">
       <c r="A145" t="s" s="2">
         <v>644</v>
       </c>
@@ -20805,7 +20805,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="148" hidden="true">
+    <row r="148">
       <c r="A148" t="s" s="2">
         <v>650</v>
       </c>
@@ -21887,7 +21887,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="157" hidden="true">
+    <row r="157">
       <c r="A157" t="s" s="2">
         <v>676</v>
       </c>
@@ -22007,7 +22007,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="158" hidden="true">
+    <row r="158">
       <c r="A158" t="s" s="2">
         <v>686</v>
       </c>
@@ -26223,12 +26223,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP192">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T14:45:31+00:00</t>
+    <t>2025-10-02T09:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T09:38:01+00:00</t>
+    <t>2025-10-02T12:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T12:26:13+00:00</t>
+    <t>2025-10-07T14:58:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T14:58:06+00:00</t>
+    <t>2025-10-08T14:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T14:59:36+00:00</t>
+    <t>2025-10-10T14:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-10T14:52:44+00:00</t>
+    <t>2025-10-14T09:28:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/298-Ajout-de-l'évènement/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-14T09:28:59+00:00</t>
+    <t>2025-10-15T10:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
